--- a/Ug data.xlsx
+++ b/Ug data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dATA sCIENCE\eXPLORE pY\Practice\Ug Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49866A34-6A9F-405E-AA76-C1D4EE1AAA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D93D1-0630-43B8-8976-D0049AA1EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{95526DCF-B61D-4211-B224-3E7D18849CC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{95526DCF-B61D-4211-B224-3E7D18849CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="popln" sheetId="1" r:id="rId1"/>
+    <sheet name="Diabetes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Children</t>
   </si>
@@ -52,6 +53,21 @@
   </si>
   <si>
     <t>Women %</t>
+  </si>
+  <si>
+    <t>HbA1c_level</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -434,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3249D1C-3609-4E18-87EF-CB483772EBFB}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -534,4 +550,265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573D1A38-D305-425E-A8E8-12549A405980}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>27.32</v>
+      </c>
+      <c r="C4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>23.45</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>20.14</v>
+      </c>
+      <c r="C6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>27.32</v>
+      </c>
+      <c r="C7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="C8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>23.86</v>
+      </c>
+      <c r="C9">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>33.64</v>
+      </c>
+      <c r="C10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>27.32</v>
+      </c>
+      <c r="C12">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>25.69</v>
+      </c>
+      <c r="C15">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>27.32</v>
+      </c>
+      <c r="C17">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>30.36</v>
+      </c>
+      <c r="C18">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>24.48</v>
+      </c>
+      <c r="C19">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>25.72</v>
+      </c>
+      <c r="C21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>18.8</v>
+      </c>
+      <c r="C23">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>21.24</v>
+      </c>
+      <c r="C24">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>27.94</v>
+      </c>
+      <c r="C25">
+        <v>6.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>